--- a/medicine/Sexualité et sexologie/Mauvais_Contact/Mauvais_Contact.xlsx
+++ b/medicine/Sexualité et sexologie/Mauvais_Contact/Mauvais_Contact.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mauvais Contact est une nouvelle écrite par Idris Seabright, pseudonyme de Margaret St. Clair, parue en 1954.
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sonya est membre des Marines, et elle est très fière d'appartenir à cette Arme d'élite.
 Dans le cadre du Programme de la « Baisse des tensions psychologiques inter-armes », il est prévu qu'elle copule (c'est le terme administratif) chaque mois avec un autre militaire d'une autre Arme, que ce soit l'Aviation, l'Infanterie, la Navale, etc. Ce militaire lui est attribué au cours d'une procédure aléatoire.
@@ -554,7 +568,9 @@
           <t>Préface</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le recueil Histoires de guerres futures est précédé d'une préface générale ; de surcroît chacune des nouvelles bénéficie d'une préface individuelle.
 Dans sa préface à la nouvelle, Jacques Goimard a notamment indiqué avec humour :
